--- a/Combined - Q1, Q2 and Q3 2023.xlsx
+++ b/Combined - Q1, Q2 and Q3 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npnis\OneDrive\Desktop\Resonate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npnis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E3FD5-7EAF-4DDA-95A6-0390818A7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0BEFE-79CC-4965-99D2-0ED03D46DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19584" yWindow="-17472" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5168,7 +5168,7 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5188,7 +5188,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -5196,36 +5196,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5246,16 +5216,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5311,6 +5271,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5356,6 +5326,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5753,8 +5743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U769"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
+      <selection activeCell="B770" sqref="B770:U782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7698,7 +7688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="81" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="67.5" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>716</v>
       </c>
@@ -8351,7 +8341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>716</v>
       </c>
@@ -8810,7 +8800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>716</v>
       </c>
@@ -10616,7 +10606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="67.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" ht="54" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>716</v>
       </c>
@@ -13599,7 +13589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="27" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
         <v>716</v>
       </c>
@@ -13650,7 +13640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="27" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>716</v>
       </c>
@@ -15109,7 +15099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="54" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A186" s="4" t="s">
         <v>716</v>
       </c>
@@ -15403,7 +15393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="67.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" ht="54" x14ac:dyDescent="0.45">
       <c r="A192" s="4" t="s">
         <v>716</v>
       </c>
@@ -17341,7 +17331,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="108" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" ht="94.5" x14ac:dyDescent="0.45">
       <c r="A232" s="4" t="s">
         <v>716</v>
       </c>
@@ -18843,7 +18833,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:21" ht="27" x14ac:dyDescent="0.45">
       <c r="A262" s="4" t="s">
         <v>716</v>
       </c>
@@ -21033,7 +21023,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="306" spans="1:21" ht="67.5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:21" ht="54" x14ac:dyDescent="0.45">
       <c r="A306" s="4" t="s">
         <v>716</v>
       </c>
@@ -21982,7 +21972,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="27" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
         <v>716</v>
       </c>
@@ -22615,7 +22605,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:21" ht="27" x14ac:dyDescent="0.45">
       <c r="A338" s="4" t="s">
         <v>716</v>
       </c>
@@ -25411,7 +25401,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="386" spans="1:21" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:21" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>717</v>
       </c>
@@ -25699,7 +25689,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="390" spans="1:21" ht="285" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:21" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>717</v>
       </c>
@@ -26131,7 +26121,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="396" spans="1:21" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:21" ht="285" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>717</v>
       </c>
@@ -26923,7 +26913,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="407" spans="1:21" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:21" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>717</v>
       </c>
@@ -27571,7 +27561,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="416" spans="1:21" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:21" ht="171" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>717</v>
       </c>
@@ -28363,7 +28353,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="427" spans="1:21" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:21" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
         <v>717</v>
       </c>
@@ -28579,7 +28569,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:21" ht="228" x14ac:dyDescent="0.45">
       <c r="A430" s="1" t="s">
         <v>717</v>
       </c>
@@ -28939,7 +28929,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="435" spans="1:21" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:21" ht="171" x14ac:dyDescent="0.45">
       <c r="A435" s="1" t="s">
         <v>717</v>
       </c>
@@ -30019,7 +30009,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="450" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A450" s="1" t="s">
         <v>717</v>
       </c>
@@ -31099,7 +31089,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="465" spans="1:21" ht="114" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:21" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A465" s="1" t="s">
         <v>717</v>
       </c>
@@ -31243,7 +31233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:21" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A467" s="1" t="s">
         <v>717</v>
       </c>
@@ -41465,7 +41455,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="608" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A608" s="73" t="s">
         <v>718</v>
       </c>
@@ -53389,79 +53379,69 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D367">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D368:E446">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",D368)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D465:E506">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",D465)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E217">
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E367">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E447:E464">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E507:E528">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E529:E688 D529:D702 D703:E769">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",D529)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E633:E676">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F529:F545">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",F529)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F620:F632">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",F620)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G367">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H217">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",H3)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M217">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",M3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D368:E446">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="185">
-      <formula>NOT(ISERROR(SEARCH("185",D368)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D465:E506">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="185">
-      <formula>NOT(ISERROR(SEARCH("185",D465)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E447:E464">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E507:E528">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H368:H383">
     <cfRule type="containsText" priority="13" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",H368)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R368:R528">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E529:E688 D529:D702 D703:E769">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="185">
-      <formula>NOT(ISERROR(SEARCH("185",D529)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E633:E676">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F529:F545">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="185">
-      <formula>NOT(ISERROR(SEARCH("185",F529)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F620:F632">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="185">
-      <formula>NOT(ISERROR(SEARCH("185",F620)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H583:H619 H633:H647">
@@ -53470,11 +53450,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H620:I632">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",H620)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R529:R769">
+  <conditionalFormatting sqref="M3:M217">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",M3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R368:R769">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Combined - Q1, Q2 and Q3 2023.xlsx
+++ b/Combined - Q1, Q2 and Q3 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npnis\Desktop\Resonate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D132932-8FDB-4C45-B99E-37AF2028890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0123E-333B-444C-BE3F-C18B02BEF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="1527">
   <si>
     <t>Enumerator Name</t>
   </si>
@@ -5178,7 +5178,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -5731,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V769"/>
+  <dimension ref="A1:V770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A769"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D770" sqref="D770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26547,7 +26557,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="386" spans="1:22" ht="384.75" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:22" ht="356.25" x14ac:dyDescent="0.45">
       <c r="A386" s="3">
         <v>2023</v>
       </c>
@@ -55675,91 +55685,165 @@
         <v>721</v>
       </c>
     </row>
+    <row r="770" spans="1:22" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A770" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D770" s="1" t="str">
+        <f t="shared" ref="D770" si="106">LEFT(E770,3)</f>
+        <v>291</v>
+      </c>
+      <c r="E770" s="55">
+        <v>291</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G770" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H770" s="1">
+        <v>24</v>
+      </c>
+      <c r="I770" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J770" s="57" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K770" s="68">
+        <f t="shared" ref="K770" si="107">IF(OR(ISNUMBER(SEARCH("confidence",J770))=TRUE,ISNUMBER(SEARCH("hope for the future",J770))=TRUE,ISNUMBER(SEARCH("communicate",J770))=TRUE,ISNUMBER(SEARCH("worthy",J770))=TRUE,ISNUMBER(SEARCH("thought",J770))=TRUE,ISNUMBER(SEARCH("open",J770))=TRUE,ISNUMBER(SEARCH("believe",J770))=TRUE,ISNUMBER(SEARCH("confident",J770))=TRUE,ISNUMBER(SEARCH("empower",J770))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L770" s="68">
+        <f t="shared" ref="L770" si="108">IF(OR(ISNUMBER(SEARCH("decision",J770))=TRUE,ISNUMBER(SEARCH("save",J770))=TRUE,ISNUMBER(SEARCH("saving",J770))=TRUE,ISNUMBER(SEARCH("started",J770))=TRUE,ISNUMBER(SEARCH("buy",J770))=TRUE,ISNUMBER(SEARCH("bought",J770))=TRUE),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M770" s="68">
+        <f t="shared" ref="M770" si="109">IF(OR(ISNUMBER(SEARCH("active",J770))=TRUE,ISNUMBER(SEARCH("proactive",J770))=TRUE,ISNUMBER(SEARCH("face challenge",J770))=TRUE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N770" s="68">
+        <f t="shared" ref="N770" si="110">IF(OR(K770=1,L770=1,M770=1),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O770" s="69">
+        <f t="shared" ref="O770" si="111">IF(OR(ISNUMBER(SEARCH("started a business",J770))=TRUE,ISNUMBER(SEARCH("started an income generating activity",J770))=TRUE,ISNUMBER(SEARCH("a business",J770))=TRUE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P770" s="69">
+        <f t="shared" ref="P770" si="112">IF(OR(ISNUMBER(SEARCH("got a job",J770))=TRUE,ISNUMBER(SEARCH("got an internship",J770))=TRUE,ISNUMBER(SEARCH("got a promotion",J770))=TRUE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q770" s="69">
+        <f t="shared" ref="Q770" si="113">IF(OR(ISNUMBER(SEARCH("school admission",J770))=TRUE,ISNUMBER(SEARCH("perfomance in class",J770))=TRUE,ISNUMBER(SEARCH("scholarship",J770))=TRUE,ISNUMBER(SEARCH("pursue higher education",J770))=TRUE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R770" s="69">
+        <f t="shared" ref="R770" si="114">IF(OR(ISNUMBER(SEARCH("leadership role",J770))=TRUE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S770" s="70">
+        <f t="shared" ref="S770" si="115">IF(OR(N770=1,O770=1,P770=1,Q770=1,R770=1),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E367">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E368:F446">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",E368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E465:F506">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",E465)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F217">
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F367">
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F447:F464">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F507:F528">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F507:F528">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F529:F688 E529:E702 E703:F769">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",E529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F633:F676">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G529:G545">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",G529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G620:G632">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",G620)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H367">
-    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="5" priority="18" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I217">
-    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I368:I383">
-    <cfRule type="containsText" priority="13" operator="containsText" text="No">
+    <cfRule type="containsText" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I583:I619 I633:I647">
-    <cfRule type="containsText" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" priority="7" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I583)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I620:J632">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",I620)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N217">
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S368:S769">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="S368:S770">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E770:F770">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",E770)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Combined - Q1, Q2 and Q3 2023.xlsx
+++ b/Combined - Q1, Q2 and Q3 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npnis\Desktop\Resonate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0123E-333B-444C-BE3F-C18B02BEF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484760A0-13C3-4A3C-A026-3687C5D3A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5181,16 +5181,6 @@
   <dxfs count="19">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -5326,6 +5316,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5743,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D770" sqref="D770"/>
     </sheetView>
   </sheetViews>
@@ -7803,7 +7803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="81" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" ht="67.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>2023</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="67.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:22" ht="54" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>2023</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="54" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:22" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
         <v>2023</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="67.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:22" ht="54" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
         <v>2023</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="108" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:22" ht="94.5" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
         <v>2023</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:22" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:22" ht="27" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
         <v>2023</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="67.5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:22" ht="54" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
         <v>2023</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:22" ht="27" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
         <v>2023</v>
       </c>
@@ -26857,7 +26857,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="285" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:22" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A390" s="3">
         <v>2023</v>
       </c>
@@ -27307,7 +27307,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="396" spans="1:22" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:22" ht="285" x14ac:dyDescent="0.45">
       <c r="A396" s="3">
         <v>2023</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="407" spans="1:22" ht="256.5" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:22" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A407" s="3">
         <v>2023</v>
       </c>
@@ -28807,7 +28807,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="416" spans="1:22" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:22" ht="171" x14ac:dyDescent="0.45">
       <c r="A416" s="3">
         <v>2023</v>
       </c>
@@ -29632,7 +29632,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="427" spans="1:22" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:22" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A427" s="3">
         <v>2023</v>
       </c>
@@ -29857,7 +29857,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="430" spans="1:22" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:22" ht="228" x14ac:dyDescent="0.45">
       <c r="A430" s="3">
         <v>2023</v>
       </c>
@@ -30232,7 +30232,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="435" spans="1:22" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:22" ht="171" x14ac:dyDescent="0.45">
       <c r="A435" s="3">
         <v>2023</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="465" spans="1:22" ht="114" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:22" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A465" s="3">
         <v>2023</v>
       </c>
@@ -32632,7 +32632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:22" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:22" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A467" s="3">
         <v>2023</v>
       </c>
@@ -55775,44 +55775,49 @@
       <formula>NOT(ISERROR(SEARCH("185",E465)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E703:F770">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="185">
+      <formula>NOT(ISERROR(SEARCH("185",E703)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F217">
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F367">
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F447:F464">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F507:F528">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F529:F688 E529:E702 E703:F769">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="185">
+  <conditionalFormatting sqref="F529:F688 E529:E702">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",E529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F633:F676">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G529:G545">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",G529)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G620:G632">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",G620)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H367">
-    <cfRule type="containsText" dxfId="5" priority="18" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I217">
-    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55827,23 +55832,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I620:J632">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="185">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="185">
       <formula>NOT(ISERROR(SEARCH("185",I620)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N217">
-    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S368:S770">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E770:F770">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="185">
-      <formula>NOT(ISERROR(SEARCH("185",E770)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Combined - Q1, Q2 and Q3 2023.xlsx
+++ b/Combined - Q1, Q2 and Q3 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npnis\Desktop\Resonate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484760A0-13C3-4A3C-A026-3687C5D3A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E77788-3A0C-4436-8499-1FBF140A0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="1527">
   <si>
     <t>Enumerator Name</t>
   </si>
@@ -5449,30 +5449,90 @@
       <sheetName val="Analysis_Charts"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="C1" t="str">
             <v>Organization included</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="C2"/>
+        </row>
+        <row r="3">
+          <cell r="C3"/>
+        </row>
+        <row r="4">
+          <cell r="C4"/>
+        </row>
+        <row r="5">
+          <cell r="C5"/>
+        </row>
+        <row r="6">
+          <cell r="C6"/>
+        </row>
+        <row r="7">
+          <cell r="C7"/>
+        </row>
+        <row r="8">
+          <cell r="C8"/>
+        </row>
+        <row r="9">
+          <cell r="C9"/>
+        </row>
+        <row r="10">
+          <cell r="C10"/>
+        </row>
+        <row r="11">
+          <cell r="C11"/>
+        </row>
+        <row r="12">
+          <cell r="C12"/>
+        </row>
+        <row r="13">
+          <cell r="C13"/>
+        </row>
+        <row r="14">
+          <cell r="C14"/>
+        </row>
+        <row r="15">
+          <cell r="C15"/>
+        </row>
+        <row r="16">
+          <cell r="C16"/>
+        </row>
+        <row r="17">
+          <cell r="C17"/>
+        </row>
+        <row r="18">
+          <cell r="C18"/>
+        </row>
+        <row r="19">
+          <cell r="C19"/>
+        </row>
+        <row r="20">
+          <cell r="C20"/>
+        </row>
         <row r="21">
           <cell r="C21" t="str">
             <v>Participant ID</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="C22"/>
+        </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5743,8 +5803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V770"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D770" sqref="D770"/>
+    <sheetView tabSelected="1" topLeftCell="J768" workbookViewId="0">
+      <selection activeCell="T770" sqref="T770:V770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55752,6 +55812,14 @@
       <c r="S770" s="70">
         <f t="shared" ref="S770" si="115">IF(OR(N770=1,O770=1,P770=1,Q770=1,R770=1),1,0)</f>
         <v>1</v>
+      </c>
+      <c r="T770" s="17"/>
+      <c r="U770" s="13" t="str">
+        <f>IF(ISNA(VLOOKUP(E770,'[2]One year follow-up_inperson'!$C:$C,1,FALSE)),"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="V770" s="28" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
